--- a/data/trans_dic/P9_1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P9_1-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que posee teléfono móvil en su vivienda actual</t>
+          <t>Población que posee teléfono móvil en su vivienda actual (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>99,27%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>99,11%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>96,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>97,67%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94,7; 99,02</t>
+          <t>95,56; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>88,89; 99,18</t>
+          <t>96,81; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>93,71; 98,01</t>
+          <t>95,54; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>92,85; 97,94</t>
+          <t>91,26; 98,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,01; 98,03</t>
+          <t>96,91; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,94; 98,11</t>
+          <t>94,62; 99,23</t>
         </is>
       </c>
     </row>
@@ -681,17 +682,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>99,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -701,12 +702,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>99,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>99,8%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>98,59; 99,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>97,89; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>97,7; 99,47</t>
+          <t>98,01; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>98,65; 100,0</t>
+          <t>97,73; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>98,51; 99,56</t>
+          <t>98,78; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>98,71; 99,82</t>
+          <t>98,97; 100,0</t>
         </is>
       </c>
     </row>
@@ -766,27 +767,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>99,8%</t>
+          <t>99,72%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,86%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,53%</t>
+          <t>99,4%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>99,54; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>98,98; 100,0</t>
+          <t>98,63; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>98,56; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>98,11; 99,79</t>
+          <t>97,47; 99,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>99,21; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>98,86; 99,89</t>
+          <t>98,5; 99,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>98,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>98,96%</t>
+          <t>98,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>98,5%</t>
+          <t>97,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>98,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>98,83%</t>
+          <t>98,37%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,58; 99,65</t>
+          <t>97,75; 99,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>96,99; 99,58</t>
+          <t>97,17; 99,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97,64; 99,05</t>
+          <t>96,42; 98,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>97,9; 99,29</t>
+          <t>96,28; 99,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,32; 99,17</t>
+          <t>97,57; 98,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,0; 99,27</t>
+          <t>97,33; 99,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>99,22%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>99,35%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>98,56%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>98,48%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>98,88%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>98,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>98,58; 99,59</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>98,69; 99,7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>97,74; 99,08</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>97,61; 99,1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>98,33; 99,21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>98,4; 99,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que posee teléfono móvil en su vivienda actual (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>224502</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>336725</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>259369</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>406458</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>483871</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>743183</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>216448; 226494</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>328393; 339214</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>250011; 261691</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>384868; 417023</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>473086; 488185</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>719959; 755058</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>317.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>373.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>571.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>690.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>650858</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>932563</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>712289</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>996191</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1363147</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1928754</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>700905; 715102</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>977243; 999989</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1349319; 1365960</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1912728; 1932552</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>437.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>549.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>455688</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>713620</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>531694</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>762198</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>987383</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1475818</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>705780; 715594</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>749733; 767262</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1462499; 1482156</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>796.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>462.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>904.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>508.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1700.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>970.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2089467</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1439401</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2042984</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1374816</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4132451</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2814216</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2066744; 2103159</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1416125; 1451205</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2014960; 2061789</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1351184; 1390862</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4102054; 4157163</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2784362; 2835796</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1338.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1143.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1576.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1328.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2914.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2471.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3420516</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3422308</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3546337</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3539662</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6966852</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6961970</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3398585; 3433194</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3399640; 3434314</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3517017; 3565141</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3508288; 3562003</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6928249; 6989695</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6926485; 6991288</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>